--- a/NSGA-II_results_Ur/resource_consumption_results.xlsx
+++ b/NSGA-II_results_Ur/resource_consumption_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\NSGA-II_results_Ur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生学习\papper\IOV\code-for-iov_modify\NSGA-II_results_Ur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8967FDDE-3C80-4827-9722-B15949CA6102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A8E9B8-663A-4027-A1E0-A511B8B8E08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="2880" windowWidth="28800" windowHeight="15345" xr2:uid="{18DF4DAF-E3D9-4E29-B5E0-B22FD0D97738}"/>
+    <workbookView xWindow="4920" yWindow="885" windowWidth="16200" windowHeight="9983" xr2:uid="{18DF4DAF-E3D9-4E29-B5E0-B22FD0D97738}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -400,149 +398,149 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1.2928999999999999</v>
       </c>
       <c r="B1">
-        <v>4.2003750000000002</v>
+        <v>2.6864166666666671</v>
       </c>
       <c r="C1">
-        <v>15.782499999999999</v>
+        <v>3.0625</v>
       </c>
       <c r="D1">
         <v>17.751499999999997</v>
       </c>
       <c r="E1">
-        <v>3.0193750000000001</v>
+        <v>18.116249999999997</v>
       </c>
       <c r="F1">
-        <v>1.4428888888888889</v>
+        <v>14.428888888888888</v>
       </c>
       <c r="G1">
-        <v>7.0209375000000005</v>
+        <v>2.3828587962962962</v>
       </c>
       <c r="H1">
-        <v>1.6339999999999997</v>
+        <v>14.356999999999999</v>
       </c>
       <c r="I1">
-        <v>4.6989999999999998</v>
+        <v>16.133333333333333</v>
       </c>
       <c r="J1">
-        <v>4.281041666666666</v>
+        <v>2.1919444444444443</v>
       </c>
       <c r="K1">
-        <v>14.126944444444444</v>
+        <v>16.932499999999997</v>
       </c>
       <c r="L1">
-        <v>4.0526111111111121</v>
+        <v>2.3540208333333332</v>
       </c>
       <c r="M1">
-        <v>1.4252374999999999</v>
+        <v>16.932375</v>
       </c>
       <c r="N1">
-        <v>1.5909</v>
+        <v>15.300888888888888</v>
       </c>
       <c r="O1">
-        <v>14.780777777777779</v>
+        <v>16.346666666666668</v>
       </c>
       <c r="P1">
-        <v>2.9872261904761905</v>
+        <v>2.097666666666667</v>
       </c>
       <c r="Q1">
-        <v>3.1666666666666665</v>
+        <v>19.455000000000002</v>
       </c>
       <c r="R1">
-        <v>2.6975416666666665</v>
+        <v>26.975416666666664</v>
       </c>
       <c r="S1">
-        <v>3.3406666666666665</v>
+        <v>2.4306666666666668</v>
       </c>
       <c r="T1">
-        <v>3.8118303571428571</v>
+        <v>3.3521875000000003</v>
       </c>
       <c r="U1">
         <v>2.5597916666666665</v>
       </c>
       <c r="V1">
-        <v>2.410222222222222</v>
+        <v>3.2457777777777777</v>
       </c>
       <c r="W1">
-        <v>17.02</v>
+        <v>3.3239999999999998</v>
       </c>
       <c r="X1">
-        <v>1.5337777777777777</v>
+        <v>1.3942444444444444</v>
       </c>
       <c r="Y1">
-        <v>18.098333333333333</v>
+        <v>18.933571428571426</v>
       </c>
       <c r="Z1">
-        <v>15.353166666666667</v>
+        <v>21.785999999999998</v>
       </c>
       <c r="AA1">
-        <v>2.6211166666666665</v>
+        <v>19.648</v>
       </c>
       <c r="AB1">
-        <v>3.2383541666666664</v>
+        <v>3.0044999999999997</v>
       </c>
       <c r="AC1">
-        <v>2.2185000000000001</v>
+        <v>2.0771999999999999</v>
       </c>
       <c r="AD1">
-        <v>25.62857142857143</v>
+        <v>13.68</v>
       </c>
       <c r="AE1">
-        <v>2.3601666666666667</v>
+        <v>2.4978333333333333</v>
       </c>
       <c r="AF1">
-        <v>2.705888888888889</v>
+        <v>2.6950000000000003</v>
       </c>
       <c r="AG1">
-        <v>3.2166666666666668</v>
+        <v>2.5566666666666666</v>
       </c>
       <c r="AH1">
-        <v>20.150500000000001</v>
+        <v>14.737499999999999</v>
       </c>
       <c r="AI1">
-        <v>1.937875</v>
+        <v>1.7731249999999998</v>
       </c>
       <c r="AJ1">
-        <v>2.8380740740740737</v>
+        <v>17.931428571428572</v>
       </c>
       <c r="AK1">
-        <v>1.4147777777777777</v>
+        <v>1.6345555555555555</v>
       </c>
       <c r="AL1">
-        <v>2.33325</v>
+        <v>15.860000000000001</v>
       </c>
       <c r="AM1">
-        <v>2.8913541666666664</v>
+        <v>15.080555555555556</v>
       </c>
       <c r="AN1">
-        <v>5.0361666666666665</v>
+        <v>20.579000000000001</v>
       </c>
       <c r="AO1">
-        <v>12.704000000000001</v>
+        <v>13.921666666666667</v>
       </c>
       <c r="AP1">
-        <v>16.893999999999998</v>
+        <v>2.815666666666667</v>
       </c>
       <c r="AQ1">
-        <v>13.266500000000001</v>
+        <v>19.082857142857144</v>
       </c>
       <c r="AR1">
-        <v>3.3701499999999998</v>
+        <v>58.629999999999995</v>
       </c>
       <c r="AS1">
-        <v>1.7146374999999998</v>
+        <v>1.1895</v>
       </c>
       <c r="AT1">
-        <v>18.452000000000002</v>
+        <v>17.051000000000002</v>
       </c>
       <c r="AU1">
-        <v>28.141527777777782</v>
+        <v>15.780277777777778</v>
       </c>
       <c r="AV1">
         <v>2.6697129629629632</v>
@@ -551,34 +549,34 @@
         <v>1.5287999999999999</v>
       </c>
       <c r="AX1">
-        <v>11.643222222222223</v>
+        <v>22.302777777777777</v>
       </c>
       <c r="AY1">
-        <v>3.8908703703703704</v>
+        <v>18.550555555555555</v>
       </c>
       <c r="AZ1">
-        <v>2.0719000000000003</v>
+        <v>25.451805555555552</v>
       </c>
       <c r="BA1">
-        <v>17.721428571428572</v>
+        <v>17.830178571428569</v>
       </c>
       <c r="BB1">
-        <v>2.0011111111111108</v>
+        <v>2.2240000000000002</v>
       </c>
       <c r="BC1">
-        <v>32.909999999999997</v>
+        <v>12.411</v>
       </c>
       <c r="BD1">
-        <v>2.6824603174603174</v>
+        <v>3.0102380952380958</v>
       </c>
       <c r="BE1">
         <v>1.5152000000000001</v>
       </c>
       <c r="BF1">
-        <v>3.3202116402116402</v>
+        <v>15.477</v>
       </c>
       <c r="BG1">
-        <v>28.981999999999999</v>
+        <v>16.455111111111108</v>
       </c>
       <c r="BH1">
         <v>2.6158333333333328</v>

--- a/NSGA-II_results_Ur/resource_consumption_results.xlsx
+++ b/NSGA-II_results_Ur/resource_consumption_results.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生学习\papper\IOV\code-for-iov_modify\NSGA-II_results_Ur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\NSGA-II_results_Ur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A8E9B8-663A-4027-A1E0-A511B8B8E08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4294E4C-F76C-484B-BC22-E3E1A759DEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="885" windowWidth="16200" windowHeight="9983" xr2:uid="{18DF4DAF-E3D9-4E29-B5E0-B22FD0D97738}"/>
+    <workbookView xWindow="3990" yWindow="2880" windowWidth="28800" windowHeight="15345" xr2:uid="{18DF4DAF-E3D9-4E29-B5E0-B22FD0D97738}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -398,173 +407,173 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1.2928999999999999</v>
+        <v>16.313499999999998</v>
       </c>
       <c r="B1">
-        <v>2.6864166666666671</v>
+        <v>2.7668928571428575</v>
       </c>
       <c r="C1">
-        <v>3.0625</v>
+        <v>2.6304166666666662</v>
       </c>
       <c r="D1">
-        <v>17.751499999999997</v>
+        <v>14.456</v>
       </c>
       <c r="E1">
-        <v>18.116249999999997</v>
+        <v>16.96</v>
       </c>
       <c r="F1">
-        <v>14.428888888888888</v>
+        <v>17.563333333333333</v>
       </c>
       <c r="G1">
-        <v>2.3828587962962962</v>
+        <v>2.7312499999999997</v>
       </c>
       <c r="H1">
         <v>14.356999999999999</v>
       </c>
       <c r="I1">
-        <v>16.133333333333333</v>
+        <v>15.016666666666666</v>
       </c>
       <c r="J1">
-        <v>2.1919444444444443</v>
+        <v>2.8558564814814811</v>
       </c>
       <c r="K1">
-        <v>16.932499999999997</v>
+        <v>13.9025</v>
       </c>
       <c r="L1">
-        <v>2.3540208333333332</v>
+        <v>3.9961111111111114</v>
       </c>
       <c r="M1">
-        <v>16.932375</v>
+        <v>14.252375000000001</v>
       </c>
       <c r="N1">
-        <v>15.300888888888888</v>
+        <v>15.847888888888889</v>
       </c>
       <c r="O1">
-        <v>16.346666666666668</v>
+        <v>12.873000000000001</v>
       </c>
       <c r="P1">
-        <v>2.097666666666667</v>
+        <v>1.9478333333333333</v>
       </c>
       <c r="Q1">
-        <v>19.455000000000002</v>
+        <v>26.034000000000002</v>
       </c>
       <c r="R1">
-        <v>26.975416666666664</v>
+        <v>26.804999999999996</v>
       </c>
       <c r="S1">
-        <v>2.4306666666666668</v>
+        <v>2.6665925925925924</v>
       </c>
       <c r="T1">
-        <v>3.3521875000000003</v>
+        <v>3.55375</v>
       </c>
       <c r="U1">
-        <v>2.5597916666666665</v>
+        <v>2.7736011904761906</v>
       </c>
       <c r="V1">
-        <v>3.2457777777777777</v>
+        <v>3.7340740740740741</v>
       </c>
       <c r="W1">
         <v>3.3239999999999998</v>
       </c>
       <c r="X1">
-        <v>1.3942444444444444</v>
+        <v>1.5085999999999999</v>
       </c>
       <c r="Y1">
-        <v>18.933571428571426</v>
+        <v>15.850714285714286</v>
       </c>
       <c r="Z1">
-        <v>21.785999999999998</v>
+        <v>12.1105</v>
       </c>
       <c r="AA1">
-        <v>19.648</v>
+        <v>27.192666666666668</v>
       </c>
       <c r="AB1">
-        <v>3.0044999999999997</v>
+        <v>3.4256874999999996</v>
       </c>
       <c r="AC1">
-        <v>2.0771999999999999</v>
+        <v>1.5571444444444444</v>
       </c>
       <c r="AD1">
-        <v>13.68</v>
+        <v>14.4</v>
       </c>
       <c r="AE1">
-        <v>2.4978333333333333</v>
+        <v>2.3601666666666667</v>
       </c>
       <c r="AF1">
-        <v>2.6950000000000003</v>
+        <v>2.3405925925925928</v>
       </c>
       <c r="AG1">
-        <v>2.5566666666666666</v>
+        <v>3.1083333333333334</v>
       </c>
       <c r="AH1">
-        <v>14.737499999999999</v>
+        <v>21.795999999999999</v>
       </c>
       <c r="AI1">
-        <v>1.7731249999999998</v>
+        <v>1.8689999999999998</v>
       </c>
       <c r="AJ1">
-        <v>17.931428571428572</v>
+        <v>16.164444444444445</v>
       </c>
       <c r="AK1">
-        <v>1.6345555555555555</v>
+        <v>1.4147777777777777</v>
       </c>
       <c r="AL1">
-        <v>15.860000000000001</v>
+        <v>16.103999999999999</v>
       </c>
       <c r="AM1">
-        <v>15.080555555555556</v>
+        <v>25.048571428571428</v>
       </c>
       <c r="AN1">
         <v>20.579000000000001</v>
       </c>
       <c r="AO1">
-        <v>13.921666666666667</v>
+        <v>12.704000000000001</v>
       </c>
       <c r="AP1">
-        <v>2.815666666666667</v>
+        <v>3.3973809523809528</v>
       </c>
       <c r="AQ1">
-        <v>19.082857142857144</v>
+        <v>15.190857142857144</v>
       </c>
       <c r="AR1">
-        <v>58.629999999999995</v>
+        <v>18.689999999999998</v>
       </c>
       <c r="AS1">
-        <v>1.1895</v>
+        <v>1.9184097222222221</v>
       </c>
       <c r="AT1">
-        <v>17.051000000000002</v>
+        <v>18.982500000000002</v>
       </c>
       <c r="AU1">
-        <v>15.780277777777778</v>
+        <v>16.038499999999999</v>
       </c>
       <c r="AV1">
         <v>2.6697129629629632</v>
       </c>
       <c r="AW1">
-        <v>1.5287999999999999</v>
+        <v>1.3688</v>
       </c>
       <c r="AX1">
-        <v>22.302777777777777</v>
+        <v>15.587222222222222</v>
       </c>
       <c r="AY1">
-        <v>18.550555555555555</v>
+        <v>16.535</v>
       </c>
       <c r="AZ1">
-        <v>25.451805555555552</v>
+        <v>29.971000000000004</v>
       </c>
       <c r="BA1">
-        <v>17.830178571428569</v>
+        <v>17.721428571428572</v>
       </c>
       <c r="BB1">
-        <v>2.2240000000000002</v>
+        <v>2.1773333333333333</v>
       </c>
       <c r="BC1">
-        <v>12.411</v>
+        <v>20.535357142857144</v>
       </c>
       <c r="BD1">
         <v>3.0102380952380958</v>
@@ -573,13 +582,3145 @@
         <v>1.5152000000000001</v>
       </c>
       <c r="BF1">
-        <v>15.477</v>
+        <v>16.183555555555557</v>
       </c>
       <c r="BG1">
-        <v>16.455111111111108</v>
+        <v>23.241527777777776</v>
       </c>
       <c r="BH1">
-        <v>2.6158333333333328</v>
+        <v>2.2991666666666664</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2D6E95-8071-4177-9DF9-B01AE2912C9D}">
+  <dimension ref="A1:ET1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:ET1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:150" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1.910520833333333</v>
+      </c>
+      <c r="B1">
+        <v>19.910499999999999</v>
+      </c>
+      <c r="C1">
+        <v>15.384</v>
+      </c>
+      <c r="D1">
+        <v>17.550833333333333</v>
+      </c>
+      <c r="E1">
+        <v>25.835833333333333</v>
+      </c>
+      <c r="F1">
+        <v>13.141999999999999</v>
+      </c>
+      <c r="G1">
+        <v>2.1850370370370369</v>
+      </c>
+      <c r="H1">
+        <v>1.8614749999999998</v>
+      </c>
+      <c r="I1">
+        <v>31.413958333333333</v>
+      </c>
+      <c r="J1">
+        <v>2.6789999999999998</v>
+      </c>
+      <c r="K1">
+        <v>1.9605000000000001</v>
+      </c>
+      <c r="L1">
+        <v>17.707928571428571</v>
+      </c>
+      <c r="M1">
+        <v>20.585714285714285</v>
+      </c>
+      <c r="N1">
+        <v>23.737380952380953</v>
+      </c>
+      <c r="O1">
+        <v>1.8092222222222225</v>
+      </c>
+      <c r="P1">
+        <v>2.2883124999999995</v>
+      </c>
+      <c r="Q1">
+        <v>22.164999999999999</v>
+      </c>
+      <c r="R1">
+        <v>4.3214732142857137</v>
+      </c>
+      <c r="S1">
+        <v>3.0909374999999999</v>
+      </c>
+      <c r="T1">
+        <v>1.8016874999999997</v>
+      </c>
+      <c r="U1">
+        <v>2.83575</v>
+      </c>
+      <c r="V1">
+        <v>17.413</v>
+      </c>
+      <c r="W1">
+        <v>12.866785714285715</v>
+      </c>
+      <c r="X1">
+        <v>3.7946875000000002</v>
+      </c>
+      <c r="Y1">
+        <v>27.33388888888889</v>
+      </c>
+      <c r="Z1">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="AA1">
+        <v>2.7816898148148144</v>
+      </c>
+      <c r="AB1">
+        <v>17.419333333333334</v>
+      </c>
+      <c r="AC1">
+        <v>23.680624999999999</v>
+      </c>
+      <c r="AD1">
+        <v>17.309000000000001</v>
+      </c>
+      <c r="AE1">
+        <v>16.628999999999998</v>
+      </c>
+      <c r="AF1">
+        <v>2.9784259259259258</v>
+      </c>
+      <c r="AG1">
+        <v>17.507083333333334</v>
+      </c>
+      <c r="AH1">
+        <v>15.812777777777779</v>
+      </c>
+      <c r="AI1">
+        <v>18.35125</v>
+      </c>
+      <c r="AJ1">
+        <v>1.5316000000000001</v>
+      </c>
+      <c r="AK1">
+        <v>23.311428571428571</v>
+      </c>
+      <c r="AL1">
+        <v>19.710333333333331</v>
+      </c>
+      <c r="AM1">
+        <v>17.786666666666669</v>
+      </c>
+      <c r="AN1">
+        <v>2.389259259259259</v>
+      </c>
+      <c r="AO1">
+        <v>14.191833333333333</v>
+      </c>
+      <c r="AP1">
+        <v>2.9902142857142859</v>
+      </c>
+      <c r="AQ1">
+        <v>17.220277777777778</v>
+      </c>
+      <c r="AR1">
+        <v>12.80125</v>
+      </c>
+      <c r="AS1">
+        <v>15.463333333333331</v>
+      </c>
+      <c r="AT1">
+        <v>15.716666666666667</v>
+      </c>
+      <c r="AU1">
+        <v>2.21</v>
+      </c>
+      <c r="AV1">
+        <v>1.7081</v>
+      </c>
+      <c r="AW1">
+        <v>3.022410714285714</v>
+      </c>
+      <c r="AX1">
+        <v>2.8135000000000003</v>
+      </c>
+      <c r="AY1">
+        <v>2.9041666666666668</v>
+      </c>
+      <c r="AZ1">
+        <v>2.6423095238095238</v>
+      </c>
+      <c r="BA1">
+        <v>13.945714285714285</v>
+      </c>
+      <c r="BB1">
+        <v>1.379</v>
+      </c>
+      <c r="BC1">
+        <v>20.065833333333334</v>
+      </c>
+      <c r="BD1">
+        <v>12.508125</v>
+      </c>
+      <c r="BE1">
+        <v>16.074999999999999</v>
+      </c>
+      <c r="BF1">
+        <v>18.406666666666666</v>
+      </c>
+      <c r="BG1">
+        <v>3.289092592592592</v>
+      </c>
+      <c r="BH1">
+        <v>2.5302129629629628</v>
+      </c>
+      <c r="BI1">
+        <v>23.463499999999996</v>
+      </c>
+      <c r="BJ1">
+        <v>1.4909999999999999</v>
+      </c>
+      <c r="BK1">
+        <v>3.5150000000000001</v>
+      </c>
+      <c r="BL1">
+        <v>18.492499999999996</v>
+      </c>
+      <c r="BM1">
+        <v>2.4941249999999999</v>
+      </c>
+      <c r="BN1">
+        <v>17.479249999999997</v>
+      </c>
+      <c r="BO1">
+        <v>3.6911458333333327</v>
+      </c>
+      <c r="BP1">
+        <v>1.1774</v>
+      </c>
+      <c r="BQ1">
+        <v>2.9244166666666667</v>
+      </c>
+      <c r="BR1">
+        <v>22.219722222222224</v>
+      </c>
+      <c r="BS1">
+        <v>16.316666666666666</v>
+      </c>
+      <c r="BT1">
+        <v>16.342857142857142</v>
+      </c>
+      <c r="BU1">
+        <v>32.052500000000002</v>
+      </c>
+      <c r="BV1">
+        <v>27.700833333333335</v>
+      </c>
+      <c r="BW1">
+        <v>2.7392777777777777</v>
+      </c>
+      <c r="BX1">
+        <v>1.6594222222222221</v>
+      </c>
+      <c r="BY1">
+        <v>16.227285714285713</v>
+      </c>
+      <c r="BZ1">
+        <v>2.9165000000000001</v>
+      </c>
+      <c r="CA1">
+        <v>1.8022499999999999</v>
+      </c>
+      <c r="CB1">
+        <v>19.215555555555554</v>
+      </c>
+      <c r="CC1">
+        <v>2.4409999999999998</v>
+      </c>
+      <c r="CD1">
+        <v>1.6874999999999996</v>
+      </c>
+      <c r="CE1">
+        <v>3.8785714285714286</v>
+      </c>
+      <c r="CF1">
+        <v>3.311651785714286</v>
+      </c>
+      <c r="CG1">
+        <v>3.134398148148148</v>
+      </c>
+      <c r="CH1">
+        <v>1.7351111111111113</v>
+      </c>
+      <c r="CI1">
+        <v>16.57</v>
+      </c>
+      <c r="CJ1">
+        <v>23.672499999999999</v>
+      </c>
+      <c r="CK1">
+        <v>31.519166666666667</v>
+      </c>
+      <c r="CL1">
+        <v>15.431666666666667</v>
+      </c>
+      <c r="CM1">
+        <v>13.832013888888886</v>
+      </c>
+      <c r="CN1">
+        <v>2.9029374999999993</v>
+      </c>
+      <c r="CO1">
+        <v>29.160714285714285</v>
+      </c>
+      <c r="CP1">
+        <v>1.5065</v>
+      </c>
+      <c r="CQ1">
+        <v>2.4844166666666667</v>
+      </c>
+      <c r="CR1">
+        <v>17.27</v>
+      </c>
+      <c r="CS1">
+        <v>1.8174333333333332</v>
+      </c>
+      <c r="CT1">
+        <v>15.984749999999998</v>
+      </c>
+      <c r="CU1">
+        <v>18.12</v>
+      </c>
+      <c r="CV1">
+        <v>2.8685208333333332</v>
+      </c>
+      <c r="CW1">
+        <v>2.5191666666666661</v>
+      </c>
+      <c r="CX1">
+        <v>32.49</v>
+      </c>
+      <c r="CY1">
+        <v>2.6803333333333335</v>
+      </c>
+      <c r="CZ1">
+        <v>13.949444444444444</v>
+      </c>
+      <c r="DA1">
+        <v>32.595555555555556</v>
+      </c>
+      <c r="DB1">
+        <v>1.9229999999999996</v>
+      </c>
+      <c r="DC1">
+        <v>16.405555555555555</v>
+      </c>
+      <c r="DD1">
+        <v>17.564</v>
+      </c>
+      <c r="DE1">
+        <v>7.7058333333333326</v>
+      </c>
+      <c r="DF1">
+        <v>19.596</v>
+      </c>
+      <c r="DG1">
+        <v>17.913333333333334</v>
+      </c>
+      <c r="DH1">
+        <v>2.413388888888889</v>
+      </c>
+      <c r="DI1">
+        <v>1.7361777777777778</v>
+      </c>
+      <c r="DJ1">
+        <v>2.1944999999999997</v>
+      </c>
+      <c r="DK1">
+        <v>49.094374999999999</v>
+      </c>
+      <c r="DL1">
+        <v>2.8687499999999999</v>
+      </c>
+      <c r="DM1">
+        <v>2.5669999999999997</v>
+      </c>
+      <c r="DN1">
+        <v>3.5262962962962963</v>
+      </c>
+      <c r="DO1">
+        <v>14.696999999999999</v>
+      </c>
+      <c r="DP1">
+        <v>3.0851666666666668</v>
+      </c>
+      <c r="DQ1">
+        <v>29.405000000000001</v>
+      </c>
+      <c r="DR1">
+        <v>3.4103571428571429</v>
+      </c>
+      <c r="DS1">
+        <v>2.1880833333333332</v>
+      </c>
+      <c r="DT1">
+        <v>25.992999999999999</v>
+      </c>
+      <c r="DU1">
+        <v>19.759047619047621</v>
+      </c>
+      <c r="DV1">
+        <v>19.706142857142858</v>
+      </c>
+      <c r="DW1">
+        <v>2.3787500000000001</v>
+      </c>
+      <c r="DX1">
+        <v>16.131</v>
+      </c>
+      <c r="DY1">
+        <v>19.949999999999996</v>
+      </c>
+      <c r="DZ1">
+        <v>20.452666666666669</v>
+      </c>
+      <c r="EA1">
+        <v>2.899285714285714</v>
+      </c>
+      <c r="EB1">
+        <v>22.233749999999997</v>
+      </c>
+      <c r="EC1">
+        <v>13.248714285714286</v>
+      </c>
+      <c r="ED1">
+        <v>20.765238095238097</v>
+      </c>
+      <c r="EE1">
+        <v>3.2315</v>
+      </c>
+      <c r="EF1">
+        <v>1.468</v>
+      </c>
+      <c r="EG1">
+        <v>3.0173958333333326</v>
+      </c>
+      <c r="EH1">
+        <v>18.42048611111111</v>
+      </c>
+      <c r="EI1">
+        <v>28.853333333333335</v>
+      </c>
+      <c r="EJ1">
+        <v>19.353928571428568</v>
+      </c>
+      <c r="EK1">
+        <v>16.270138888888887</v>
+      </c>
+      <c r="EL1">
+        <v>19.174999999999997</v>
+      </c>
+      <c r="EM1">
+        <v>13.969444444444445</v>
+      </c>
+      <c r="EN1">
+        <v>15.643000000000001</v>
+      </c>
+      <c r="EO1">
+        <v>3.1681249999999999</v>
+      </c>
+      <c r="EP1">
+        <v>5.1941666666666668</v>
+      </c>
+      <c r="EQ1">
+        <v>1.6229714285714287</v>
+      </c>
+      <c r="ER1">
+        <v>11.19</v>
+      </c>
+      <c r="ES1">
+        <v>2.8758333333333335</v>
+      </c>
+      <c r="ET1">
+        <v>22.687499999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0ADE48-1CD6-497B-8012-972AB0DBE626}">
+  <dimension ref="A1:BR1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:BR1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>2.9039999999999995</v>
+      </c>
+      <c r="B1">
+        <v>3.5969791666666664</v>
+      </c>
+      <c r="C1">
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="D1">
+        <v>18.336285714285715</v>
+      </c>
+      <c r="E1">
+        <v>1.6565555555555556</v>
+      </c>
+      <c r="F1">
+        <v>14.563571428571429</v>
+      </c>
+      <c r="G1">
+        <v>2.0008571428571429</v>
+      </c>
+      <c r="H1">
+        <v>15.251339285714284</v>
+      </c>
+      <c r="I1">
+        <v>17.381250000000001</v>
+      </c>
+      <c r="J1">
+        <v>16.518055555555556</v>
+      </c>
+      <c r="K1">
+        <v>18.832857142857144</v>
+      </c>
+      <c r="L1">
+        <v>2.3586666666666667</v>
+      </c>
+      <c r="M1">
+        <v>16.766999999999999</v>
+      </c>
+      <c r="N1">
+        <v>18.91242857142857</v>
+      </c>
+      <c r="O1">
+        <v>2.1427777777777779</v>
+      </c>
+      <c r="P1">
+        <v>17.287285714285716</v>
+      </c>
+      <c r="Q1">
+        <v>14.164</v>
+      </c>
+      <c r="R1">
+        <v>3.9487499999999995</v>
+      </c>
+      <c r="S1">
+        <v>2.0605000000000002</v>
+      </c>
+      <c r="T1">
+        <v>12.879999999999999</v>
+      </c>
+      <c r="U1">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="V1">
+        <v>22.476999999999997</v>
+      </c>
+      <c r="W1">
+        <v>19.876833333333337</v>
+      </c>
+      <c r="X1">
+        <v>2.8777777777777778</v>
+      </c>
+      <c r="Y1">
+        <v>10.741</v>
+      </c>
+      <c r="Z1">
+        <v>3.7219999999999995</v>
+      </c>
+      <c r="AA1">
+        <v>1.6250249999999999</v>
+      </c>
+      <c r="AB1">
+        <v>13.405999999999999</v>
+      </c>
+      <c r="AC1">
+        <v>17.769999999999996</v>
+      </c>
+      <c r="AD1">
+        <v>3.3164285714285713</v>
+      </c>
+      <c r="AE1">
+        <v>14.358749999999999</v>
+      </c>
+      <c r="AF1">
+        <v>1.7873333333333332</v>
+      </c>
+      <c r="AG1">
+        <v>3.0902777777777777</v>
+      </c>
+      <c r="AH1">
+        <v>2.6643333333333334</v>
+      </c>
+      <c r="AI1">
+        <v>18.861249999999998</v>
+      </c>
+      <c r="AJ1">
+        <v>3.1883333333333326</v>
+      </c>
+      <c r="AK1">
+        <v>18.701349206349207</v>
+      </c>
+      <c r="AL1">
+        <v>14.754999999999999</v>
+      </c>
+      <c r="AM1">
+        <v>2.7584999999999997</v>
+      </c>
+      <c r="AN1">
+        <v>19.482857142857142</v>
+      </c>
+      <c r="AO1">
+        <v>3.3180952380952387</v>
+      </c>
+      <c r="AP1">
+        <v>32.850999999999999</v>
+      </c>
+      <c r="AQ1">
+        <v>17.182285714285712</v>
+      </c>
+      <c r="AR1">
+        <v>1.371288888888889</v>
+      </c>
+      <c r="AS1">
+        <v>2.5718518518518518</v>
+      </c>
+      <c r="AT1">
+        <v>17.891333333333336</v>
+      </c>
+      <c r="AU1">
+        <v>2.9563333333333333</v>
+      </c>
+      <c r="AV1">
+        <v>2.925619047619048</v>
+      </c>
+      <c r="AW1">
+        <v>1.4951666666666665</v>
+      </c>
+      <c r="AX1">
+        <v>18.872142857142855</v>
+      </c>
+      <c r="AY1">
+        <v>2.7867916666666668</v>
+      </c>
+      <c r="AZ1">
+        <v>2.3303333333333334</v>
+      </c>
+      <c r="BA1">
+        <v>3.4733333333333332</v>
+      </c>
+      <c r="BB1">
+        <v>1.3336000000000001</v>
+      </c>
+      <c r="BC1">
+        <v>18.956666666666667</v>
+      </c>
+      <c r="BD1">
+        <v>2.3624999999999998</v>
+      </c>
+      <c r="BE1">
+        <v>19.181349206349211</v>
+      </c>
+      <c r="BF1">
+        <v>17.168055555555554</v>
+      </c>
+      <c r="BG1">
+        <v>3.5179999999999998</v>
+      </c>
+      <c r="BH1">
+        <v>14.818750000000001</v>
+      </c>
+      <c r="BI1">
+        <v>2.2549999999999999</v>
+      </c>
+      <c r="BJ1">
+        <v>2.4765208333333333</v>
+      </c>
+      <c r="BK1">
+        <v>22.909000000000002</v>
+      </c>
+      <c r="BL1">
+        <v>18.353999999999999</v>
+      </c>
+      <c r="BM1">
+        <v>15.911999999999999</v>
+      </c>
+      <c r="BN1">
+        <v>23.484999999999999</v>
+      </c>
+      <c r="BO1">
+        <v>2.7606249999999997</v>
+      </c>
+      <c r="BP1">
+        <v>1.3377499999999998</v>
+      </c>
+      <c r="BQ1">
+        <v>5.95</v>
+      </c>
+      <c r="BR1">
+        <v>2.359285714285714</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F49055-5A45-42B5-B309-329B3E855353}">
+  <dimension ref="A1:CB1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:CB1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>9.6470000000000002</v>
+      </c>
+      <c r="B1">
+        <v>2.14445</v>
+      </c>
+      <c r="C1">
+        <v>2.672574074074074</v>
+      </c>
+      <c r="D1">
+        <v>2.1996666666666669</v>
+      </c>
+      <c r="E1">
+        <v>17.505803571428572</v>
+      </c>
+      <c r="F1">
+        <v>2.4113492063492066</v>
+      </c>
+      <c r="G1">
+        <v>15.454142857142855</v>
+      </c>
+      <c r="H1">
+        <v>16.695625</v>
+      </c>
+      <c r="I1">
+        <v>2.9359722222222224</v>
+      </c>
+      <c r="J1">
+        <v>14.2575</v>
+      </c>
+      <c r="K1">
+        <v>2.8774999999999999</v>
+      </c>
+      <c r="L1">
+        <v>13.311499999999999</v>
+      </c>
+      <c r="M1">
+        <v>24.741785714285712</v>
+      </c>
+      <c r="N1">
+        <v>2.0037444444444441</v>
+      </c>
+      <c r="O1">
+        <v>2.8774999999999999</v>
+      </c>
+      <c r="P1">
+        <v>19.972000000000001</v>
+      </c>
+      <c r="Q1">
+        <v>2.7483333333333331</v>
+      </c>
+      <c r="R1">
+        <v>2.9849642857142857</v>
+      </c>
+      <c r="S1">
+        <v>2.0166666666666666</v>
+      </c>
+      <c r="T1">
+        <v>11.9665</v>
+      </c>
+      <c r="U1">
+        <v>2.7383333333333337</v>
+      </c>
+      <c r="V1">
+        <v>3.7001041666666667</v>
+      </c>
+      <c r="W1">
+        <v>3.1579537037037038</v>
+      </c>
+      <c r="X1">
+        <v>2.0518333333333332</v>
+      </c>
+      <c r="Y1">
+        <v>14.782083333333333</v>
+      </c>
+      <c r="Z1">
+        <v>4.9004166666666666</v>
+      </c>
+      <c r="AA1">
+        <v>15.015124999999999</v>
+      </c>
+      <c r="AB1">
+        <v>13.495555555555555</v>
+      </c>
+      <c r="AC1">
+        <v>2.5199999999999996</v>
+      </c>
+      <c r="AD1">
+        <v>18.621428571428574</v>
+      </c>
+      <c r="AE1">
+        <v>4.2004166666666665</v>
+      </c>
+      <c r="AF1">
+        <v>2.5841666666666665</v>
+      </c>
+      <c r="AG1">
+        <v>12.517499999999998</v>
+      </c>
+      <c r="AH1">
+        <v>22.072000000000003</v>
+      </c>
+      <c r="AI1">
+        <v>21.280714285714286</v>
+      </c>
+      <c r="AJ1">
+        <v>19.063571428571429</v>
+      </c>
+      <c r="AK1">
+        <v>3.0989814814814816</v>
+      </c>
+      <c r="AL1">
+        <v>2.1987499999999995</v>
+      </c>
+      <c r="AM1">
+        <v>2.9000000000000004</v>
+      </c>
+      <c r="AN1">
+        <v>2.0768749999999998</v>
+      </c>
+      <c r="AO1">
+        <v>1.97075</v>
+      </c>
+      <c r="AP1">
+        <v>14.086666666666666</v>
+      </c>
+      <c r="AQ1">
+        <v>14.157999999999999</v>
+      </c>
+      <c r="AR1">
+        <v>4.2357142857142858</v>
+      </c>
+      <c r="AS1">
+        <v>13.535666666666668</v>
+      </c>
+      <c r="AT1">
+        <v>1.31325</v>
+      </c>
+      <c r="AU1">
+        <v>2.5727142857142855</v>
+      </c>
+      <c r="AV1">
+        <v>3.3513095238095238</v>
+      </c>
+      <c r="AW1">
+        <v>13.020833333333332</v>
+      </c>
+      <c r="AX1">
+        <v>15.623249999999999</v>
+      </c>
+      <c r="AY1">
+        <v>1.5427500000000001</v>
+      </c>
+      <c r="AZ1">
+        <v>2.9199537037037033</v>
+      </c>
+      <c r="BA1">
+        <v>24.014166666666668</v>
+      </c>
+      <c r="BB1">
+        <v>14.496874999999999</v>
+      </c>
+      <c r="BC1">
+        <v>18.741666666666667</v>
+      </c>
+      <c r="BD1">
+        <v>2.71475</v>
+      </c>
+      <c r="BE1">
+        <v>1.37025</v>
+      </c>
+      <c r="BF1">
+        <v>11.093499999999999</v>
+      </c>
+      <c r="BG1">
+        <v>2.4438749999999994</v>
+      </c>
+      <c r="BH1">
+        <v>2.3682142857142856</v>
+      </c>
+      <c r="BI1">
+        <v>2.8152083333333331</v>
+      </c>
+      <c r="BJ1">
+        <v>2.6976666666666667</v>
+      </c>
+      <c r="BK1">
+        <v>18.62</v>
+      </c>
+      <c r="BL1">
+        <v>18.859444444444446</v>
+      </c>
+      <c r="BM1">
+        <v>12.306666666666667</v>
+      </c>
+      <c r="BN1">
+        <v>15.3665</v>
+      </c>
+      <c r="BO1">
+        <v>2.5879074074074073</v>
+      </c>
+      <c r="BP1">
+        <v>1.3701124999999998</v>
+      </c>
+      <c r="BQ1">
+        <v>1.93</v>
+      </c>
+      <c r="BR1">
+        <v>17.975000000000001</v>
+      </c>
+      <c r="BS1">
+        <v>15.773</v>
+      </c>
+      <c r="BT1">
+        <v>12.784666666666666</v>
+      </c>
+      <c r="BU1">
+        <v>1.851</v>
+      </c>
+      <c r="BV1">
+        <v>3.1828333333333334</v>
+      </c>
+      <c r="BW1">
+        <v>23.652777777777779</v>
+      </c>
+      <c r="BX1">
+        <v>21.299166666666665</v>
+      </c>
+      <c r="BY1">
+        <v>17.96</v>
+      </c>
+      <c r="BZ1">
+        <v>3.5259259259259261</v>
+      </c>
+      <c r="CA1">
+        <v>14.228000000000002</v>
+      </c>
+      <c r="CB1">
+        <v>14.550624999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C4CDEC-E461-488F-8842-18407A15AFE0}">
+  <dimension ref="A1:CL1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:CL1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:90" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>2.6222500000000002</v>
+      </c>
+      <c r="B1">
+        <v>18.0565</v>
+      </c>
+      <c r="C1">
+        <v>31.925000000000001</v>
+      </c>
+      <c r="D1">
+        <v>14.657499999999999</v>
+      </c>
+      <c r="E1">
+        <v>26.17</v>
+      </c>
+      <c r="F1">
+        <v>2.9930000000000003</v>
+      </c>
+      <c r="G1">
+        <v>1.4408000000000001</v>
+      </c>
+      <c r="H1">
+        <v>1.9281666666666666</v>
+      </c>
+      <c r="I1">
+        <v>1.9946041666666665</v>
+      </c>
+      <c r="J1">
+        <v>2.0883333333333334</v>
+      </c>
+      <c r="K1">
+        <v>20.505000000000003</v>
+      </c>
+      <c r="L1">
+        <v>18.116000000000003</v>
+      </c>
+      <c r="M1">
+        <v>2.7573333333333334</v>
+      </c>
+      <c r="N1">
+        <v>17.294944444444447</v>
+      </c>
+      <c r="O1">
+        <v>1.58355</v>
+      </c>
+      <c r="P1">
+        <v>2.7080000000000002</v>
+      </c>
+      <c r="Q1">
+        <v>2.7185185185185183</v>
+      </c>
+      <c r="R1">
+        <v>17.292333333333332</v>
+      </c>
+      <c r="S1">
+        <v>18.153333333333332</v>
+      </c>
+      <c r="T1">
+        <v>2.8816666666666659</v>
+      </c>
+      <c r="U1">
+        <v>2.6622222222222218</v>
+      </c>
+      <c r="V1">
+        <v>15.328000000000001</v>
+      </c>
+      <c r="W1">
+        <v>13.130555555555556</v>
+      </c>
+      <c r="X1">
+        <v>13.106000000000002</v>
+      </c>
+      <c r="Y1">
+        <v>3.4505208333333335</v>
+      </c>
+      <c r="Z1">
+        <v>1.4603000000000002</v>
+      </c>
+      <c r="AA1">
+        <v>14.733499999999999</v>
+      </c>
+      <c r="AB1">
+        <v>1.6963111111111111</v>
+      </c>
+      <c r="AC1">
+        <v>1.6736624999999998</v>
+      </c>
+      <c r="AD1">
+        <v>2.8237037037037034</v>
+      </c>
+      <c r="AE1">
+        <v>2.3174999999999999</v>
+      </c>
+      <c r="AF1">
+        <v>23.354285714285716</v>
+      </c>
+      <c r="AG1">
+        <v>16.36</v>
+      </c>
+      <c r="AH1">
+        <v>20.402698412698413</v>
+      </c>
+      <c r="AI1">
+        <v>16.759999999999998</v>
+      </c>
+      <c r="AJ1">
+        <v>2.7633333333333328</v>
+      </c>
+      <c r="AK1">
+        <v>1.3047</v>
+      </c>
+      <c r="AL1">
+        <v>1.7658749999999996</v>
+      </c>
+      <c r="AM1">
+        <v>14.664</v>
+      </c>
+      <c r="AN1">
+        <v>17.113333333333333</v>
+      </c>
+      <c r="AO1">
+        <v>16.166857142857143</v>
+      </c>
+      <c r="AP1">
+        <v>1.5308999999999999</v>
+      </c>
+      <c r="AQ1">
+        <v>3.0120370370370368</v>
+      </c>
+      <c r="AR1">
+        <v>21.406874999999999</v>
+      </c>
+      <c r="AS1">
+        <v>14.256</v>
+      </c>
+      <c r="AT1">
+        <v>17.024444444444445</v>
+      </c>
+      <c r="AU1">
+        <v>2.8775714285714287</v>
+      </c>
+      <c r="AV1">
+        <v>16.704749999999997</v>
+      </c>
+      <c r="AW1">
+        <v>22.885000000000002</v>
+      </c>
+      <c r="AX1">
+        <v>2.5746111111111114</v>
+      </c>
+      <c r="AY1">
+        <v>29.019500000000001</v>
+      </c>
+      <c r="AZ1">
+        <v>17.584285714285716</v>
+      </c>
+      <c r="BA1">
+        <v>1.5816666666666666</v>
+      </c>
+      <c r="BB1">
+        <v>14.257222222222222</v>
+      </c>
+      <c r="BC1">
+        <v>3.4125000000000001</v>
+      </c>
+      <c r="BD1">
+        <v>2.5631875000000002</v>
+      </c>
+      <c r="BE1">
+        <v>2.4005624999999999</v>
+      </c>
+      <c r="BF1">
+        <v>17.529999999999998</v>
+      </c>
+      <c r="BG1">
+        <v>22.298000000000002</v>
+      </c>
+      <c r="BH1">
+        <v>3.4713888888888889</v>
+      </c>
+      <c r="BI1">
+        <v>13.857333333333333</v>
+      </c>
+      <c r="BJ1">
+        <v>22.798111111111112</v>
+      </c>
+      <c r="BK1">
+        <v>2.9933333333333332</v>
+      </c>
+      <c r="BL1">
+        <v>1.6933333333333334</v>
+      </c>
+      <c r="BM1">
+        <v>2.2786666666666666</v>
+      </c>
+      <c r="BN1">
+        <v>2.5231759259259263</v>
+      </c>
+      <c r="BO1">
+        <v>40.872142857142862</v>
+      </c>
+      <c r="BP1">
+        <v>18.284236111111113</v>
+      </c>
+      <c r="BQ1">
+        <v>21.512500000000003</v>
+      </c>
+      <c r="BR1">
+        <v>13.255500000000001</v>
+      </c>
+      <c r="BS1">
+        <v>21.197222222222223</v>
+      </c>
+      <c r="BT1">
+        <v>2.5094999999999996</v>
+      </c>
+      <c r="BU1">
+        <v>2.7355687830687829</v>
+      </c>
+      <c r="BV1">
+        <v>3.3051874999999997</v>
+      </c>
+      <c r="BW1">
+        <v>3.1426666666666669</v>
+      </c>
+      <c r="BX1">
+        <v>20.806746031746034</v>
+      </c>
+      <c r="BY1">
+        <v>3.5153571428571428</v>
+      </c>
+      <c r="BZ1">
+        <v>2.6946666666666665</v>
+      </c>
+      <c r="CA1">
+        <v>3.5330555555555558</v>
+      </c>
+      <c r="CB1">
+        <v>24.371500000000001</v>
+      </c>
+      <c r="CC1">
+        <v>3.1033333333333335</v>
+      </c>
+      <c r="CD1">
+        <v>15.670000000000002</v>
+      </c>
+      <c r="CE1">
+        <v>17.143333333333331</v>
+      </c>
+      <c r="CF1">
+        <v>1.5056</v>
+      </c>
+      <c r="CG1">
+        <v>27.304285714285719</v>
+      </c>
+      <c r="CH1">
+        <v>18.026190476190479</v>
+      </c>
+      <c r="CI1">
+        <v>21.996249999999996</v>
+      </c>
+      <c r="CJ1">
+        <v>2.6748749999999997</v>
+      </c>
+      <c r="CK1">
+        <v>1.6983000000000001</v>
+      </c>
+      <c r="CL1">
+        <v>2.6662499999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA29DE5-1F7E-4408-A8E2-E9227801C819}">
+  <dimension ref="A1:CV1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:CV1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>2.6116071428571428</v>
+      </c>
+      <c r="B1">
+        <v>17.321874999999999</v>
+      </c>
+      <c r="C1">
+        <v>15.671666666666667</v>
+      </c>
+      <c r="D1">
+        <v>37.54785714285714</v>
+      </c>
+      <c r="E1">
+        <v>17.78</v>
+      </c>
+      <c r="F1">
+        <v>2.7833333333333332</v>
+      </c>
+      <c r="G1">
+        <v>1.6082777777777777</v>
+      </c>
+      <c r="H1">
+        <v>1.3974500000000001</v>
+      </c>
+      <c r="I1">
+        <v>16.65942857142857</v>
+      </c>
+      <c r="J1">
+        <v>17.819999999999997</v>
+      </c>
+      <c r="K1">
+        <v>16.581666666666667</v>
+      </c>
+      <c r="L1">
+        <v>1.5886666666666667</v>
+      </c>
+      <c r="M1">
+        <v>2.58</v>
+      </c>
+      <c r="N1">
+        <v>21.500089285714285</v>
+      </c>
+      <c r="O1">
+        <v>26.544999999999998</v>
+      </c>
+      <c r="P1">
+        <v>14.074166666666667</v>
+      </c>
+      <c r="Q1">
+        <v>2.34</v>
+      </c>
+      <c r="R1">
+        <v>36.053333333333335</v>
+      </c>
+      <c r="S1">
+        <v>15.029166666666667</v>
+      </c>
+      <c r="T1">
+        <v>2.9366666666666661</v>
+      </c>
+      <c r="U1">
+        <v>15.63984126984127</v>
+      </c>
+      <c r="V1">
+        <v>15.244999999999999</v>
+      </c>
+      <c r="W1">
+        <v>1.2475555555555555</v>
+      </c>
+      <c r="X1">
+        <v>16.722499999999997</v>
+      </c>
+      <c r="Y1">
+        <v>2.8511309523809523</v>
+      </c>
+      <c r="Z1">
+        <v>2.1561111111111111</v>
+      </c>
+      <c r="AA1">
+        <v>1.6348333333333334</v>
+      </c>
+      <c r="AB1">
+        <v>24.512499999999999</v>
+      </c>
+      <c r="AC1">
+        <v>13.566749999999999</v>
+      </c>
+      <c r="AD1">
+        <v>2.9083333333333337</v>
+      </c>
+      <c r="AE1">
+        <v>15.114999999999998</v>
+      </c>
+      <c r="AF1">
+        <v>18.441428571428574</v>
+      </c>
+      <c r="AG1">
+        <v>2.4014814814814818</v>
+      </c>
+      <c r="AH1">
+        <v>1.48885</v>
+      </c>
+      <c r="AI1">
+        <v>2.5426666666666664</v>
+      </c>
+      <c r="AJ1">
+        <v>3.7198095238095243</v>
+      </c>
+      <c r="AK1">
+        <v>19.89714285714286</v>
+      </c>
+      <c r="AL1">
+        <v>23.006250000000001</v>
+      </c>
+      <c r="AM1">
+        <v>18.125714285714285</v>
+      </c>
+      <c r="AN1">
+        <v>14.826249999999998</v>
+      </c>
+      <c r="AO1">
+        <v>15.877000000000001</v>
+      </c>
+      <c r="AP1">
+        <v>2.5436296296296295</v>
+      </c>
+      <c r="AQ1">
+        <v>2.3400000000000003</v>
+      </c>
+      <c r="AR1">
+        <v>3.730666666666667</v>
+      </c>
+      <c r="AS1">
+        <v>2.5919444444444446</v>
+      </c>
+      <c r="AT1">
+        <v>30.183500000000002</v>
+      </c>
+      <c r="AU1">
+        <v>2.4918333333333331</v>
+      </c>
+      <c r="AV1">
+        <v>2.3566666666666665</v>
+      </c>
+      <c r="AW1">
+        <v>2.1757499999999999</v>
+      </c>
+      <c r="AX1">
+        <v>13.757999999999999</v>
+      </c>
+      <c r="AY1">
+        <v>2.2347222222222221</v>
+      </c>
+      <c r="AZ1">
+        <v>26.047499999999996</v>
+      </c>
+      <c r="BA1">
+        <v>15.299999999999999</v>
+      </c>
+      <c r="BB1">
+        <v>1.6556111111111111</v>
+      </c>
+      <c r="BC1">
+        <v>15.157555555555556</v>
+      </c>
+      <c r="BD1">
+        <v>24.137999999999998</v>
+      </c>
+      <c r="BE1">
+        <v>15.574999999999999</v>
+      </c>
+      <c r="BF1">
+        <v>1.6189666666666667</v>
+      </c>
+      <c r="BG1">
+        <v>1.4568000000000001</v>
+      </c>
+      <c r="BH1">
+        <v>3.6741250000000001</v>
+      </c>
+      <c r="BI1">
+        <v>1.6784999999999997</v>
+      </c>
+      <c r="BJ1">
+        <v>18.157222222222224</v>
+      </c>
+      <c r="BK1">
+        <v>2.23</v>
+      </c>
+      <c r="BL1">
+        <v>21.734999999999999</v>
+      </c>
+      <c r="BM1">
+        <v>2.4573333333333336</v>
+      </c>
+      <c r="BN1">
+        <v>13.516999999999999</v>
+      </c>
+      <c r="BO1">
+        <v>10.926</v>
+      </c>
+      <c r="BP1">
+        <v>1.2615000000000001</v>
+      </c>
+      <c r="BQ1">
+        <v>2.3976666666666668</v>
+      </c>
+      <c r="BR1">
+        <v>14.914999999999999</v>
+      </c>
+      <c r="BS1">
+        <v>16.40688888888889</v>
+      </c>
+      <c r="BT1">
+        <v>1.5499222222222224</v>
+      </c>
+      <c r="BU1">
+        <v>2.5762962962962961</v>
+      </c>
+      <c r="BV1">
+        <v>22.604999999999997</v>
+      </c>
+      <c r="BW1">
+        <v>1.4077500000000001</v>
+      </c>
+      <c r="BX1">
+        <v>3.0346875</v>
+      </c>
+      <c r="BY1">
+        <v>23.484166666666667</v>
+      </c>
+      <c r="BZ1">
+        <v>17.422499999999999</v>
+      </c>
+      <c r="CA1">
+        <v>21.395714285714288</v>
+      </c>
+      <c r="CB1">
+        <v>2.5083333333333333</v>
+      </c>
+      <c r="CC1">
+        <v>1.6092857142857144</v>
+      </c>
+      <c r="CD1">
+        <v>2.5433333333333334</v>
+      </c>
+      <c r="CE1">
+        <v>15.677380952380954</v>
+      </c>
+      <c r="CF1">
+        <v>2.5212777777777777</v>
+      </c>
+      <c r="CG1">
+        <v>17.043749999999999</v>
+      </c>
+      <c r="CH1">
+        <v>3.9550000000000001</v>
+      </c>
+      <c r="CI1">
+        <v>17.969285714285714</v>
+      </c>
+      <c r="CJ1">
+        <v>16.362777777777779</v>
+      </c>
+      <c r="CK1">
+        <v>20.14</v>
+      </c>
+      <c r="CL1">
+        <v>15.232214285714285</v>
+      </c>
+      <c r="CM1">
+        <v>2.7510000000000003</v>
+      </c>
+      <c r="CN1">
+        <v>13.035</v>
+      </c>
+      <c r="CO1">
+        <v>2.6207500000000001</v>
+      </c>
+      <c r="CP1">
+        <v>14.820444444444444</v>
+      </c>
+      <c r="CQ1">
+        <v>3.2378703703703704</v>
+      </c>
+      <c r="CR1">
+        <v>23.61</v>
+      </c>
+      <c r="CS1">
+        <v>1.7349444444444444</v>
+      </c>
+      <c r="CT1">
+        <v>1.5057777777777779</v>
+      </c>
+      <c r="CU1">
+        <v>18.978214285714287</v>
+      </c>
+      <c r="CV1">
+        <v>1.8722285714285714</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A840B246-8B73-4DDB-BA7E-10F79BD36D4F}">
+  <dimension ref="A1:DF1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:DF1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>12.568999999999999</v>
+      </c>
+      <c r="B1">
+        <v>77.16</v>
+      </c>
+      <c r="C1">
+        <v>2.6294791666666661</v>
+      </c>
+      <c r="D1">
+        <v>3.9606666666666666</v>
+      </c>
+      <c r="E1">
+        <v>3.2481018518518519</v>
+      </c>
+      <c r="F1">
+        <v>3.8206249999999997</v>
+      </c>
+      <c r="G1">
+        <v>26.09</v>
+      </c>
+      <c r="H1">
+        <v>18.170000000000002</v>
+      </c>
+      <c r="I1">
+        <v>17.859107142857141</v>
+      </c>
+      <c r="J1">
+        <v>15.215555555555554</v>
+      </c>
+      <c r="K1">
+        <v>15.088749999999999</v>
+      </c>
+      <c r="L1">
+        <v>2.5881481481481479</v>
+      </c>
+      <c r="M1">
+        <v>3.9522916666666665</v>
+      </c>
+      <c r="N1">
+        <v>2.7608958333333327</v>
+      </c>
+      <c r="O1">
+        <v>2.6124074074074075</v>
+      </c>
+      <c r="P1">
+        <v>19.261428571428574</v>
+      </c>
+      <c r="Q1">
+        <v>2.6908095238095244</v>
+      </c>
+      <c r="R1">
+        <v>3.1937499999999996</v>
+      </c>
+      <c r="S1">
+        <v>2.6920000000000002</v>
+      </c>
+      <c r="T1">
+        <v>69.555999999999997</v>
+      </c>
+      <c r="U1">
+        <v>2.1026666666666669</v>
+      </c>
+      <c r="V1">
+        <v>20.32714285714286</v>
+      </c>
+      <c r="W1">
+        <v>14.408999999999999</v>
+      </c>
+      <c r="X1">
+        <v>2.552975</v>
+      </c>
+      <c r="Y1">
+        <v>16.352500000000003</v>
+      </c>
+      <c r="Z1">
+        <v>31.825714285714287</v>
+      </c>
+      <c r="AA1">
+        <v>27.586666666666666</v>
+      </c>
+      <c r="AB1">
+        <v>1.5438888888888886</v>
+      </c>
+      <c r="AC1">
+        <v>2.1837</v>
+      </c>
+      <c r="AD1">
+        <v>7.6974999999999998</v>
+      </c>
+      <c r="AE1">
+        <v>7.3376000000000001</v>
+      </c>
+      <c r="AF1">
+        <v>14.656666666666666</v>
+      </c>
+      <c r="AG1">
+        <v>2.5458333333333334</v>
+      </c>
+      <c r="AH1">
+        <v>18.159999999999997</v>
+      </c>
+      <c r="AI1">
+        <v>3.1508333333333329</v>
+      </c>
+      <c r="AJ1">
+        <v>16.216249999999995</v>
+      </c>
+      <c r="AK1">
+        <v>55.748124999999995</v>
+      </c>
+      <c r="AL1">
+        <v>1.4877666666666667</v>
+      </c>
+      <c r="AM1">
+        <v>3.4996666666666663</v>
+      </c>
+      <c r="AN1">
+        <v>34.352499999999999</v>
+      </c>
+      <c r="AO1">
+        <v>13.701000000000001</v>
+      </c>
+      <c r="AP1">
+        <v>1.5252777777777777</v>
+      </c>
+      <c r="AQ1">
+        <v>3.1355555555555554</v>
+      </c>
+      <c r="AR1">
+        <v>16.450972222222219</v>
+      </c>
+      <c r="AS1">
+        <v>2.6081666666666665</v>
+      </c>
+      <c r="AT1">
+        <v>7.1061111111111108</v>
+      </c>
+      <c r="AU1">
+        <v>61.938888888888883</v>
+      </c>
+      <c r="AV1">
+        <v>81.075833333333335</v>
+      </c>
+      <c r="AW1">
+        <v>19.485952380952384</v>
+      </c>
+      <c r="AX1">
+        <v>3.8402083333333334</v>
+      </c>
+      <c r="AY1">
+        <v>1.3524047619047619</v>
+      </c>
+      <c r="AZ1">
+        <v>5.1645370370370376</v>
+      </c>
+      <c r="BA1">
+        <v>16.431428571428572</v>
+      </c>
+      <c r="BB1">
+        <v>2.5191666666666661</v>
+      </c>
+      <c r="BC1">
+        <v>16.686666666666667</v>
+      </c>
+      <c r="BD1">
+        <v>3.9976666666666665</v>
+      </c>
+      <c r="BE1">
+        <v>15.798611111111111</v>
+      </c>
+      <c r="BF1">
+        <v>25.550357142857145</v>
+      </c>
+      <c r="BG1">
+        <v>28.520416666666669</v>
+      </c>
+      <c r="BH1">
+        <v>18.046285714285712</v>
+      </c>
+      <c r="BI1">
+        <v>3.0303333333333331</v>
+      </c>
+      <c r="BJ1">
+        <v>40.079374999999999</v>
+      </c>
+      <c r="BK1">
+        <v>4.5670370370370375</v>
+      </c>
+      <c r="BL1">
+        <v>17.741666666666667</v>
+      </c>
+      <c r="BM1">
+        <v>2.7391666666666667</v>
+      </c>
+      <c r="BN1">
+        <v>27.692500000000003</v>
+      </c>
+      <c r="BO1">
+        <v>1.7037777777777778</v>
+      </c>
+      <c r="BP1">
+        <v>1.4332833333333332</v>
+      </c>
+      <c r="BQ1">
+        <v>17.943333333333335</v>
+      </c>
+      <c r="BR1">
+        <v>2.0787999999999998</v>
+      </c>
+      <c r="BS1">
+        <v>2.3986666666666667</v>
+      </c>
+      <c r="BT1">
+        <v>16.368124999999999</v>
+      </c>
+      <c r="BU1">
+        <v>16.606269841269842</v>
+      </c>
+      <c r="BV1">
+        <v>18.4175</v>
+      </c>
+      <c r="BW1">
+        <v>19.392499999999998</v>
+      </c>
+      <c r="BX1">
+        <v>1.6255666666666666</v>
+      </c>
+      <c r="BY1">
+        <v>20.854166666666668</v>
+      </c>
+      <c r="BZ1">
+        <v>3.2380952380952381</v>
+      </c>
+      <c r="CA1">
+        <v>15.594444444444443</v>
+      </c>
+      <c r="CB1">
+        <v>3.7734583333333331</v>
+      </c>
+      <c r="CC1">
+        <v>18.808</v>
+      </c>
+      <c r="CD1">
+        <v>3.5248333333333335</v>
+      </c>
+      <c r="CE1">
+        <v>2.7659920634920638</v>
+      </c>
+      <c r="CF1">
+        <v>13.523722222222222</v>
+      </c>
+      <c r="CG1">
+        <v>29.225999999999999</v>
+      </c>
+      <c r="CH1">
+        <v>21.698125000000001</v>
+      </c>
+      <c r="CI1">
+        <v>61.403749999999988</v>
+      </c>
+      <c r="CJ1">
+        <v>19.228174603174605</v>
+      </c>
+      <c r="CK1">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="CL1">
+        <v>18.999999999999996</v>
+      </c>
+      <c r="CM1">
+        <v>16.111000000000001</v>
+      </c>
+      <c r="CN1">
+        <v>1.3439999999999999</v>
+      </c>
+      <c r="CO1">
+        <v>20.327999999999999</v>
+      </c>
+      <c r="CP1">
+        <v>18.852499999999999</v>
+      </c>
+      <c r="CQ1">
+        <v>13.079499999999999</v>
+      </c>
+      <c r="CR1">
+        <v>21.581250000000001</v>
+      </c>
+      <c r="CS1">
+        <v>32.583749999999995</v>
+      </c>
+      <c r="CT1">
+        <v>36.19874999999999</v>
+      </c>
+      <c r="CU1">
+        <v>13.615</v>
+      </c>
+      <c r="CV1">
+        <v>3.0641428571428575</v>
+      </c>
+      <c r="CW1">
+        <v>2.7241666666666666</v>
+      </c>
+      <c r="CX1">
+        <v>4.0579166666666664</v>
+      </c>
+      <c r="CY1">
+        <v>1.7419666666666669</v>
+      </c>
+      <c r="CZ1">
+        <v>1.9615833333333335</v>
+      </c>
+      <c r="DA1">
+        <v>22.1052380952381</v>
+      </c>
+      <c r="DB1">
+        <v>21.595142857142857</v>
+      </c>
+      <c r="DC1">
+        <v>16.814499999999999</v>
+      </c>
+      <c r="DD1">
+        <v>74.644000000000005</v>
+      </c>
+      <c r="DE1">
+        <v>2.8538095238095238</v>
+      </c>
+      <c r="DF1">
+        <v>24.387142857142859</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AE7B83-B3C2-438C-A10D-02C4DDA1C597}">
+  <dimension ref="A1:DP1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:DP1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>2.2928703703703706</v>
+      </c>
+      <c r="B1">
+        <v>15.251666666666665</v>
+      </c>
+      <c r="C1">
+        <v>2.0236666666666667</v>
+      </c>
+      <c r="D1">
+        <v>46.380499999999991</v>
+      </c>
+      <c r="E1">
+        <v>24.978214285714287</v>
+      </c>
+      <c r="F1">
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="G1">
+        <v>3.2171428571428571</v>
+      </c>
+      <c r="H1">
+        <v>19.576428571428572</v>
+      </c>
+      <c r="I1">
+        <v>25.952999999999996</v>
+      </c>
+      <c r="J1">
+        <v>2.6208333333333336</v>
+      </c>
+      <c r="K1">
+        <v>2.3066666666666666</v>
+      </c>
+      <c r="L1">
+        <v>17.59</v>
+      </c>
+      <c r="M1">
+        <v>1.60825</v>
+      </c>
+      <c r="N1">
+        <v>3.0481249999999998</v>
+      </c>
+      <c r="O1">
+        <v>25.87083333333333</v>
+      </c>
+      <c r="P1">
+        <v>18.395000000000003</v>
+      </c>
+      <c r="Q1">
+        <v>30.834285714285713</v>
+      </c>
+      <c r="R1">
+        <v>3.5696666666666665</v>
+      </c>
+      <c r="S1">
+        <v>1.4243111111111113</v>
+      </c>
+      <c r="T1">
+        <v>2.5563571428571432</v>
+      </c>
+      <c r="U1">
+        <v>13.432222222222222</v>
+      </c>
+      <c r="V1">
+        <v>2.6815740740740734</v>
+      </c>
+      <c r="W1">
+        <v>27.910333333333334</v>
+      </c>
+      <c r="X1">
+        <v>2.2073333333333336</v>
+      </c>
+      <c r="Y1">
+        <v>19.303214285714283</v>
+      </c>
+      <c r="Z1">
+        <v>36.133499999999998</v>
+      </c>
+      <c r="AA1">
+        <v>69.320714285714288</v>
+      </c>
+      <c r="AB1">
+        <v>13.709</v>
+      </c>
+      <c r="AC1">
+        <v>2.3421666666666665</v>
+      </c>
+      <c r="AD1">
+        <v>20.421428571428571</v>
+      </c>
+      <c r="AE1">
+        <v>2.5339999999999998</v>
+      </c>
+      <c r="AF1">
+        <v>14.470624999999997</v>
+      </c>
+      <c r="AG1">
+        <v>3.1873015873015875</v>
+      </c>
+      <c r="AH1">
+        <v>14.466722222222222</v>
+      </c>
+      <c r="AI1">
+        <v>1.5708000000000002</v>
+      </c>
+      <c r="AJ1">
+        <v>1.1173499999999998</v>
+      </c>
+      <c r="AK1">
+        <v>22.838555555555558</v>
+      </c>
+      <c r="AL1">
+        <v>2.3311000000000002</v>
+      </c>
+      <c r="AM1">
+        <v>3.5393055555555559</v>
+      </c>
+      <c r="AN1">
+        <v>21.329000000000001</v>
+      </c>
+      <c r="AO1">
+        <v>11.5425</v>
+      </c>
+      <c r="AP1">
+        <v>14.794499999999999</v>
+      </c>
+      <c r="AQ1">
+        <v>20.706111111111106</v>
+      </c>
+      <c r="AR1">
+        <v>1.5102301587301588</v>
+      </c>
+      <c r="AS1">
+        <v>13.376142857142858</v>
+      </c>
+      <c r="AT1">
+        <v>4.1940833333333334</v>
+      </c>
+      <c r="AU1">
+        <v>17.144999999999996</v>
+      </c>
+      <c r="AV1">
+        <v>2.5032738095238094</v>
+      </c>
+      <c r="AW1">
+        <v>16.233888888888888</v>
+      </c>
+      <c r="AX1">
+        <v>2.2956249999999998</v>
+      </c>
+      <c r="AY1">
+        <v>2.385821759259259</v>
+      </c>
+      <c r="AZ1">
+        <v>13.900444444444444</v>
+      </c>
+      <c r="BA1">
+        <v>13.898095238095237</v>
+      </c>
+      <c r="BB1">
+        <v>18.934374999999999</v>
+      </c>
+      <c r="BC1">
+        <v>21.693750000000001</v>
+      </c>
+      <c r="BD1">
+        <v>20.467666666666666</v>
+      </c>
+      <c r="BE1">
+        <v>16.218</v>
+      </c>
+      <c r="BF1">
+        <v>18.622222222222224</v>
+      </c>
+      <c r="BG1">
+        <v>30.217500000000001</v>
+      </c>
+      <c r="BH1">
+        <v>1.7860000000000003</v>
+      </c>
+      <c r="BI1">
+        <v>21.03</v>
+      </c>
+      <c r="BJ1">
+        <v>38.328749999999999</v>
+      </c>
+      <c r="BK1">
+        <v>15.8725</v>
+      </c>
+      <c r="BL1">
+        <v>12.844055555555556</v>
+      </c>
+      <c r="BM1">
+        <v>15.47625</v>
+      </c>
+      <c r="BN1">
+        <v>35.563124999999992</v>
+      </c>
+      <c r="BO1">
+        <v>12.311</v>
+      </c>
+      <c r="BP1">
+        <v>2.4547916666666665</v>
+      </c>
+      <c r="BQ1">
+        <v>2.3657500000000002</v>
+      </c>
+      <c r="BR1">
+        <v>4.2779166666666661</v>
+      </c>
+      <c r="BS1">
+        <v>1.65855</v>
+      </c>
+      <c r="BT1">
+        <v>3.1118154761904764</v>
+      </c>
+      <c r="BU1">
+        <v>18.168611111111112</v>
+      </c>
+      <c r="BV1">
+        <v>14.66</v>
+      </c>
+      <c r="BW1">
+        <v>17.564732142857142</v>
+      </c>
+      <c r="BX1">
+        <v>14.446875</v>
+      </c>
+      <c r="BY1">
+        <v>5.2529166666666658</v>
+      </c>
+      <c r="BZ1">
+        <v>18.451000000000001</v>
+      </c>
+      <c r="CA1">
+        <v>14.451749999999999</v>
+      </c>
+      <c r="CB1">
+        <v>15.969999999999999</v>
+      </c>
+      <c r="CC1">
+        <v>1.474088888888889</v>
+      </c>
+      <c r="CD1">
+        <v>17.046904761904763</v>
+      </c>
+      <c r="CE1">
+        <v>14.374920634920635</v>
+      </c>
+      <c r="CF1">
+        <v>3.5376190476190481</v>
+      </c>
+      <c r="CG1">
+        <v>2.8918333333333335</v>
+      </c>
+      <c r="CH1">
+        <v>2.8120370370370371</v>
+      </c>
+      <c r="CI1">
+        <v>2.2218518518518522</v>
+      </c>
+      <c r="CJ1">
+        <v>1.6052999999999999</v>
+      </c>
+      <c r="CK1">
+        <v>2.7823333333333333</v>
+      </c>
+      <c r="CL1">
+        <v>40.014999999999993</v>
+      </c>
+      <c r="CM1">
+        <v>25.939285714285717</v>
+      </c>
+      <c r="CN1">
+        <v>14.344444444444445</v>
+      </c>
+      <c r="CO1">
+        <v>37.721666666666664</v>
+      </c>
+      <c r="CP1">
+        <v>21.265000000000001</v>
+      </c>
+      <c r="CQ1">
+        <v>1.4644249999999999</v>
+      </c>
+      <c r="CR1">
+        <v>1.5237142857142856</v>
+      </c>
+      <c r="CS1">
+        <v>16.684583333333332</v>
+      </c>
+      <c r="CT1">
+        <v>13.612500000000001</v>
+      </c>
+      <c r="CU1">
+        <v>15.728</v>
+      </c>
+      <c r="CV1">
+        <v>14.571555555555555</v>
+      </c>
+      <c r="CW1">
+        <v>22.917999999999999</v>
+      </c>
+      <c r="CX1">
+        <v>3.6337499999999996</v>
+      </c>
+      <c r="CY1">
+        <v>2.1302142857142856</v>
+      </c>
+      <c r="CZ1">
+        <v>13.364428571428572</v>
+      </c>
+      <c r="DA1">
+        <v>3.6437222222222219</v>
+      </c>
+      <c r="DB1">
+        <v>1.4836</v>
+      </c>
+      <c r="DC1">
+        <v>30.887333333333338</v>
+      </c>
+      <c r="DD1">
+        <v>13.132666666666665</v>
+      </c>
+      <c r="DE1">
+        <v>36.599999999999994</v>
+      </c>
+      <c r="DF1">
+        <v>1.3603999999999998</v>
+      </c>
+      <c r="DG1">
+        <v>1.7631055555555557</v>
+      </c>
+      <c r="DH1">
+        <v>19.979285714285716</v>
+      </c>
+      <c r="DI1">
+        <v>2.4893333333333332</v>
+      </c>
+      <c r="DJ1">
+        <v>2.1774166666666668</v>
+      </c>
+      <c r="DK1">
+        <v>1.7146111111111113</v>
+      </c>
+      <c r="DL1">
+        <v>2.5179166666666664</v>
+      </c>
+      <c r="DM1">
+        <v>55.672499999999992</v>
+      </c>
+      <c r="DN1">
+        <v>18.298303571428569</v>
+      </c>
+      <c r="DO1">
+        <v>2.925416666666667</v>
+      </c>
+      <c r="DP1">
+        <v>15.240555555555556</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF439EE-F4C8-45C9-8CF8-59C6DD81A433}">
+  <dimension ref="A1:DZ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:DZ1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:130" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>15.915446428571428</v>
+      </c>
+      <c r="B1">
+        <v>2.5655555555555556</v>
+      </c>
+      <c r="C1">
+        <v>15.479166666666666</v>
+      </c>
+      <c r="D1">
+        <v>1.9433125000000002</v>
+      </c>
+      <c r="E1">
+        <v>1.3857222222222223</v>
+      </c>
+      <c r="F1">
+        <v>11.399000000000001</v>
+      </c>
+      <c r="G1">
+        <v>1.4358333333333333</v>
+      </c>
+      <c r="H1">
+        <v>2.8656249999999996</v>
+      </c>
+      <c r="I1">
+        <v>18.425208333333334</v>
+      </c>
+      <c r="J1">
+        <v>15.747361111111109</v>
+      </c>
+      <c r="K1">
+        <v>16.436666666666667</v>
+      </c>
+      <c r="L1">
+        <v>30.077999999999999</v>
+      </c>
+      <c r="M1">
+        <v>2.109777777777778</v>
+      </c>
+      <c r="N1">
+        <v>18.395138888888887</v>
+      </c>
+      <c r="O1">
+        <v>2.0428333333333337</v>
+      </c>
+      <c r="P1">
+        <v>12.096</v>
+      </c>
+      <c r="Q1">
+        <v>2.4868518518518519</v>
+      </c>
+      <c r="R1">
+        <v>14.509166666666665</v>
+      </c>
+      <c r="S1">
+        <v>2.8497354497354497</v>
+      </c>
+      <c r="T1">
+        <v>2.7546296296296298</v>
+      </c>
+      <c r="U1">
+        <v>14.009</v>
+      </c>
+      <c r="V1">
+        <v>17.589642857142856</v>
+      </c>
+      <c r="W1">
+        <v>16.024285714285714</v>
+      </c>
+      <c r="X1">
+        <v>35.371249999999996</v>
+      </c>
+      <c r="Y1">
+        <v>9.918333333333333</v>
+      </c>
+      <c r="Z1">
+        <v>14.933499999999999</v>
+      </c>
+      <c r="AA1">
+        <v>18.816142857142857</v>
+      </c>
+      <c r="AB1">
+        <v>13.0115</v>
+      </c>
+      <c r="AC1">
+        <v>1.2863777777777778</v>
+      </c>
+      <c r="AD1">
+        <v>23.338750000000001</v>
+      </c>
+      <c r="AE1">
+        <v>21.350999999999999</v>
+      </c>
+      <c r="AF1">
+        <v>12.197166666666666</v>
+      </c>
+      <c r="AG1">
+        <v>12.562499999999998</v>
+      </c>
+      <c r="AH1">
+        <v>14.615333333333334</v>
+      </c>
+      <c r="AI1">
+        <v>14.448</v>
+      </c>
+      <c r="AJ1">
+        <v>29.782500000000002</v>
+      </c>
+      <c r="AK1">
+        <v>3.103399470899471</v>
+      </c>
+      <c r="AL1">
+        <v>2.2125000000000004</v>
+      </c>
+      <c r="AM1">
+        <v>2.714722222222222</v>
+      </c>
+      <c r="AN1">
+        <v>1.2397</v>
+      </c>
+      <c r="AO1">
+        <v>2.3560416666666666</v>
+      </c>
+      <c r="AP1">
+        <v>15.040000000000001</v>
+      </c>
+      <c r="AQ1">
+        <v>17.755555555555556</v>
+      </c>
+      <c r="AR1">
+        <v>18.767777777777777</v>
+      </c>
+      <c r="AS1">
+        <v>15.727499999999999</v>
+      </c>
+      <c r="AT1">
+        <v>2.3169444444444443</v>
+      </c>
+      <c r="AU1">
+        <v>18.763111111111112</v>
+      </c>
+      <c r="AV1">
+        <v>16.523</v>
+      </c>
+      <c r="AW1">
+        <v>23.974166666666665</v>
+      </c>
+      <c r="AX1">
+        <v>1.8360000000000001</v>
+      </c>
+      <c r="AY1">
+        <v>12.196111111111112</v>
+      </c>
+      <c r="AZ1">
+        <v>24.048333333333332</v>
+      </c>
+      <c r="BA1">
+        <v>2.1398611111111112</v>
+      </c>
+      <c r="BB1">
+        <v>1.9206249999999998</v>
+      </c>
+      <c r="BC1">
+        <v>3.9623333333333335</v>
+      </c>
+      <c r="BD1">
+        <v>2.9138888888888888</v>
+      </c>
+      <c r="BE1">
+        <v>1.7257013888888888</v>
+      </c>
+      <c r="BF1">
+        <v>2.3716666666666661</v>
+      </c>
+      <c r="BG1">
+        <v>23.957500000000003</v>
+      </c>
+      <c r="BH1">
+        <v>11.724444444444444</v>
+      </c>
+      <c r="BI1">
+        <v>16.025500000000001</v>
+      </c>
+      <c r="BJ1">
+        <v>12.46</v>
+      </c>
+      <c r="BK1">
+        <v>16.180555555555557</v>
+      </c>
+      <c r="BL1">
+        <v>1.2523571428571429</v>
+      </c>
+      <c r="BM1">
+        <v>2.1910500000000002</v>
+      </c>
+      <c r="BN1">
+        <v>15.915714285714287</v>
+      </c>
+      <c r="BO1">
+        <v>13.560357142857143</v>
+      </c>
+      <c r="BP1">
+        <v>14.275555555555556</v>
+      </c>
+      <c r="BQ1">
+        <v>16.961666666666666</v>
+      </c>
+      <c r="BR1">
+        <v>27.577777777777776</v>
+      </c>
+      <c r="BS1">
+        <v>2.6619166666666669</v>
+      </c>
+      <c r="BT1">
+        <v>1.4174777777777778</v>
+      </c>
+      <c r="BU1">
+        <v>11.522</v>
+      </c>
+      <c r="BV1">
+        <v>2.2135833333333332</v>
+      </c>
+      <c r="BW1">
+        <v>1.5875555555555556</v>
+      </c>
+      <c r="BX1">
+        <v>27.808750000000003</v>
+      </c>
+      <c r="BY1">
+        <v>18.696249999999999</v>
+      </c>
+      <c r="BZ1">
+        <v>24.14</v>
+      </c>
+      <c r="CA1">
+        <v>1.4886333333333333</v>
+      </c>
+      <c r="CB1">
+        <v>1.9015444444444447</v>
+      </c>
+      <c r="CC1">
+        <v>15.623333333333335</v>
+      </c>
+      <c r="CD1">
+        <v>2.25</v>
+      </c>
+      <c r="CE1">
+        <v>4.237166666666667</v>
+      </c>
+      <c r="CF1">
+        <v>1.4577500000000001</v>
+      </c>
+      <c r="CG1">
+        <v>2.1763750000000002</v>
+      </c>
+      <c r="CH1">
+        <v>18.395833333333332</v>
+      </c>
+      <c r="CI1">
+        <v>14.808888888888889</v>
+      </c>
+      <c r="CJ1">
+        <v>2.8878124999999999</v>
+      </c>
+      <c r="CK1">
+        <v>21.231111111111108</v>
+      </c>
+      <c r="CL1">
+        <v>13.702857142857141</v>
+      </c>
+      <c r="CM1">
+        <v>2.1151666666666666</v>
+      </c>
+      <c r="CN1">
+        <v>14.684444444444445</v>
+      </c>
+      <c r="CO1">
+        <v>12.054444444444442</v>
+      </c>
+      <c r="CP1">
+        <v>17.883055555555554</v>
+      </c>
+      <c r="CQ1">
+        <v>21.015555555555551</v>
+      </c>
+      <c r="CR1">
+        <v>2.3247500000000003</v>
+      </c>
+      <c r="CS1">
+        <v>21.38</v>
+      </c>
+      <c r="CT1">
+        <v>14.52375</v>
+      </c>
+      <c r="CU1">
+        <v>16.354000000000003</v>
+      </c>
+      <c r="CV1">
+        <v>1.8727500000000001</v>
+      </c>
+      <c r="CW1">
+        <v>17.082916666666666</v>
+      </c>
+      <c r="CX1">
+        <v>18.59</v>
+      </c>
+      <c r="CY1">
+        <v>19.221714285714285</v>
+      </c>
+      <c r="CZ1">
+        <v>2.6843749999999997</v>
+      </c>
+      <c r="DA1">
+        <v>12.36311111111111</v>
+      </c>
+      <c r="DB1">
+        <v>3.3665178571428571</v>
+      </c>
+      <c r="DC1">
+        <v>21.866333333333333</v>
+      </c>
+      <c r="DD1">
+        <v>14.947777777777777</v>
+      </c>
+      <c r="DE1">
+        <v>14.271500000000001</v>
+      </c>
+      <c r="DF1">
+        <v>14.169097222222222</v>
+      </c>
+      <c r="DG1">
+        <v>1.6104000000000001</v>
+      </c>
+      <c r="DH1">
+        <v>1.4974999999999998</v>
+      </c>
+      <c r="DI1">
+        <v>2.722083333333333</v>
+      </c>
+      <c r="DJ1">
+        <v>2.5114722222222223</v>
+      </c>
+      <c r="DK1">
+        <v>2.3719259259259258</v>
+      </c>
+      <c r="DL1">
+        <v>2.8740833333333331</v>
+      </c>
+      <c r="DM1">
+        <v>15.015000000000001</v>
+      </c>
+      <c r="DN1">
+        <v>1.9339375000000003</v>
+      </c>
+      <c r="DO1">
+        <v>13.7</v>
+      </c>
+      <c r="DP1">
+        <v>18.367777777777778</v>
+      </c>
+      <c r="DQ1">
+        <v>13.186249999999999</v>
+      </c>
+      <c r="DR1">
+        <v>20.273611111111109</v>
+      </c>
+      <c r="DS1">
+        <v>2.2053958333333332</v>
+      </c>
+      <c r="DT1">
+        <v>2.2879999999999998</v>
+      </c>
+      <c r="DU1">
+        <v>20.847999999999999</v>
+      </c>
+      <c r="DV1">
+        <v>1.5139444444444445</v>
+      </c>
+      <c r="DW1">
+        <v>2.3352777777777778</v>
+      </c>
+      <c r="DX1">
+        <v>22.708750000000002</v>
+      </c>
+      <c r="DY1">
+        <v>2.9466666666666668</v>
+      </c>
+      <c r="DZ1">
+        <v>16.456428571428575</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A885439-D0EE-4197-8DE2-651224222D25}">
+  <dimension ref="A1:EJ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:EJ1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:140" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>18.346285714285717</v>
+      </c>
+      <c r="B1">
+        <v>22.397142857142857</v>
+      </c>
+      <c r="C1">
+        <v>15.379999999999999</v>
+      </c>
+      <c r="D1">
+        <v>13.478888888888889</v>
+      </c>
+      <c r="E1">
+        <v>2.9007638888888887</v>
+      </c>
+      <c r="F1">
+        <v>2.0750000000000002</v>
+      </c>
+      <c r="G1">
+        <v>2.4437500000000001</v>
+      </c>
+      <c r="H1">
+        <v>2.1583888888888887</v>
+      </c>
+      <c r="I1">
+        <v>2.2844444444444445</v>
+      </c>
+      <c r="J1">
+        <v>20.936</v>
+      </c>
+      <c r="K1">
+        <v>21.01428571428572</v>
+      </c>
+      <c r="L1">
+        <v>16.791874999999997</v>
+      </c>
+      <c r="M1">
+        <v>15.420444444444446</v>
+      </c>
+      <c r="N1">
+        <v>3.3261458333333334</v>
+      </c>
+      <c r="O1">
+        <v>15.364999999999998</v>
+      </c>
+      <c r="P1">
+        <v>15.884499999999999</v>
+      </c>
+      <c r="Q1">
+        <v>13.584999999999999</v>
+      </c>
+      <c r="R1">
+        <v>1.6480000000000001</v>
+      </c>
+      <c r="S1">
+        <v>15.750833333333333</v>
+      </c>
+      <c r="T1">
+        <v>16.32114285714286</v>
+      </c>
+      <c r="U1">
+        <v>4.9766666666666666</v>
+      </c>
+      <c r="V1">
+        <v>2.9962500000000003</v>
+      </c>
+      <c r="W1">
+        <v>2.8072500000000002</v>
+      </c>
+      <c r="X1">
+        <v>2.2551666666666668</v>
+      </c>
+      <c r="Y1">
+        <v>1.5374499999999998</v>
+      </c>
+      <c r="Z1">
+        <v>2.927777777777778</v>
+      </c>
+      <c r="AA1">
+        <v>20.338571428571427</v>
+      </c>
+      <c r="AB1">
+        <v>12.8635</v>
+      </c>
+      <c r="AC1">
+        <v>13.747125</v>
+      </c>
+      <c r="AD1">
+        <v>22.834285714285716</v>
+      </c>
+      <c r="AE1">
+        <v>14.861499999999999</v>
+      </c>
+      <c r="AF1">
+        <v>1.5994999999999999</v>
+      </c>
+      <c r="AG1">
+        <v>1.4975999999999998</v>
+      </c>
+      <c r="AH1">
+        <v>21.367142857142859</v>
+      </c>
+      <c r="AI1">
+        <v>15.518888888888888</v>
+      </c>
+      <c r="AJ1">
+        <v>15.311666666666666</v>
+      </c>
+      <c r="AK1">
+        <v>19.044166666666669</v>
+      </c>
+      <c r="AL1">
+        <v>14.751666666666665</v>
+      </c>
+      <c r="AM1">
+        <v>2.6825661375661376</v>
+      </c>
+      <c r="AN1">
+        <v>1.5755999999999999</v>
+      </c>
+      <c r="AO1">
+        <v>15.5625</v>
+      </c>
+      <c r="AP1">
+        <v>2.3266666666666667</v>
+      </c>
+      <c r="AQ1">
+        <v>1.6669999999999998</v>
+      </c>
+      <c r="AR1">
+        <v>15.4375</v>
+      </c>
+      <c r="AS1">
+        <v>17.265000000000001</v>
+      </c>
+      <c r="AT1">
+        <v>14.211</v>
+      </c>
+      <c r="AU1">
+        <v>1.7363999999999997</v>
+      </c>
+      <c r="AV1">
+        <v>1.6738999999999997</v>
+      </c>
+      <c r="AW1">
+        <v>18.594999999999999</v>
+      </c>
+      <c r="AX1">
+        <v>2.8237083333333333</v>
+      </c>
+      <c r="AY1">
+        <v>2.9194791666666662</v>
+      </c>
+      <c r="AZ1">
+        <v>1.4883500000000001</v>
+      </c>
+      <c r="BA1">
+        <v>2.2419166666666666</v>
+      </c>
+      <c r="BB1">
+        <v>13.615</v>
+      </c>
+      <c r="BC1">
+        <v>14.925000000000001</v>
+      </c>
+      <c r="BD1">
+        <v>2.1799999999999997</v>
+      </c>
+      <c r="BE1">
+        <v>17.860277777777778</v>
+      </c>
+      <c r="BF1">
+        <v>18.552430555555556</v>
+      </c>
+      <c r="BG1">
+        <v>3.2133333333333338</v>
+      </c>
+      <c r="BH1">
+        <v>19.888888888888889</v>
+      </c>
+      <c r="BI1">
+        <v>13.26</v>
+      </c>
+      <c r="BJ1">
+        <v>19.655625000000001</v>
+      </c>
+      <c r="BK1">
+        <v>14.184999999999999</v>
+      </c>
+      <c r="BL1">
+        <v>2.4039999999999999</v>
+      </c>
+      <c r="BM1">
+        <v>26.215000000000003</v>
+      </c>
+      <c r="BN1">
+        <v>19.018749999999997</v>
+      </c>
+      <c r="BO1">
+        <v>20.443333333333335</v>
+      </c>
+      <c r="BP1">
+        <v>1.8804571428571428</v>
+      </c>
+      <c r="BQ1">
+        <v>24.934761904761906</v>
+      </c>
+      <c r="BR1">
+        <v>33.563333333333333</v>
+      </c>
+      <c r="BS1">
+        <v>22.311</v>
+      </c>
+      <c r="BT1">
+        <v>2.9699999999999998</v>
+      </c>
+      <c r="BU1">
+        <v>16.284444444444443</v>
+      </c>
+      <c r="BV1">
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="BW1">
+        <v>34.233333333333334</v>
+      </c>
+      <c r="BX1">
+        <v>17.435625000000002</v>
+      </c>
+      <c r="BY1">
+        <v>21.29175</v>
+      </c>
+      <c r="BZ1">
+        <v>17.87914285714286</v>
+      </c>
+      <c r="CA1">
+        <v>1.5168000000000001</v>
+      </c>
+      <c r="CB1">
+        <v>1.5911999999999999</v>
+      </c>
+      <c r="CC1">
+        <v>2.4643333333333337</v>
+      </c>
+      <c r="CD1">
+        <v>2.6759999999999997</v>
+      </c>
+      <c r="CE1">
+        <v>2.3644166666666671</v>
+      </c>
+      <c r="CF1">
+        <v>3.0802662037037036</v>
+      </c>
+      <c r="CG1">
+        <v>15.926</v>
+      </c>
+      <c r="CH1">
+        <v>2.1734999999999993</v>
+      </c>
+      <c r="CI1">
+        <v>15.156349206349205</v>
+      </c>
+      <c r="CJ1">
+        <v>21.037499999999994</v>
+      </c>
+      <c r="CK1">
+        <v>22.881388888888889</v>
+      </c>
+      <c r="CL1">
+        <v>19.32</v>
+      </c>
+      <c r="CM1">
+        <v>2.8506041666666668</v>
+      </c>
+      <c r="CN1">
+        <v>2.9666666666666668</v>
+      </c>
+      <c r="CO1">
+        <v>20.394714285714286</v>
+      </c>
+      <c r="CP1">
+        <v>1.9354999999999996</v>
+      </c>
+      <c r="CQ1">
+        <v>2.7122222222222225</v>
+      </c>
+      <c r="CR1">
+        <v>13.895499999999998</v>
+      </c>
+      <c r="CS1">
+        <v>3.5381249999999995</v>
+      </c>
+      <c r="CT1">
+        <v>27.268125000000001</v>
+      </c>
+      <c r="CU1">
+        <v>2.7289351851851853</v>
+      </c>
+      <c r="CV1">
+        <v>1.2347999999999999</v>
+      </c>
+      <c r="CW1">
+        <v>2.952592592592592</v>
+      </c>
+      <c r="CX1">
+        <v>19.624166666666664</v>
+      </c>
+      <c r="CY1">
+        <v>15.904444444444444</v>
+      </c>
+      <c r="CZ1">
+        <v>16.8</v>
+      </c>
+      <c r="DA1">
+        <v>19.53142857142857</v>
+      </c>
+      <c r="DB1">
+        <v>23.61</v>
+      </c>
+      <c r="DC1">
+        <v>3.5512499999999996</v>
+      </c>
+      <c r="DD1">
+        <v>1.7607500000000003</v>
+      </c>
+      <c r="DE1">
+        <v>18.404444444444444</v>
+      </c>
+      <c r="DF1">
+        <v>2.9871944444444445</v>
+      </c>
+      <c r="DG1">
+        <v>1.51355</v>
+      </c>
+      <c r="DH1">
+        <v>20.366666666666667</v>
+      </c>
+      <c r="DI1">
+        <v>2.2446944444444443</v>
+      </c>
+      <c r="DJ1">
+        <v>1.3232444444444444</v>
+      </c>
+      <c r="DK1">
+        <v>2.941666666666666</v>
+      </c>
+      <c r="DL1">
+        <v>2.4160000000000004</v>
+      </c>
+      <c r="DM1">
+        <v>2.8562962962962963</v>
+      </c>
+      <c r="DN1">
+        <v>1.8119999999999996</v>
+      </c>
+      <c r="DO1">
+        <v>28.358333333333334</v>
+      </c>
+      <c r="DP1">
+        <v>25.231250000000003</v>
+      </c>
+      <c r="DQ1">
+        <v>23.047000000000001</v>
+      </c>
+      <c r="DR1">
+        <v>13.747</v>
+      </c>
+      <c r="DS1">
+        <v>25.47</v>
+      </c>
+      <c r="DT1">
+        <v>2.9248809523809527</v>
+      </c>
+      <c r="DU1">
+        <v>15.443111111111111</v>
+      </c>
+      <c r="DV1">
+        <v>1.795625</v>
+      </c>
+      <c r="DW1">
+        <v>3.2662777777777778</v>
+      </c>
+      <c r="DX1">
+        <v>13.619499999999999</v>
+      </c>
+      <c r="DY1">
+        <v>1.5812999999999999</v>
+      </c>
+      <c r="DZ1">
+        <v>13.72</v>
+      </c>
+      <c r="EA1">
+        <v>28.65761904761905</v>
+      </c>
+      <c r="EB1">
+        <v>2.4624166666666669</v>
+      </c>
+      <c r="EC1">
+        <v>2.7649166666666662</v>
+      </c>
+      <c r="ED1">
+        <v>23.133714285714287</v>
+      </c>
+      <c r="EE1">
+        <v>3.3488333333333333</v>
+      </c>
+      <c r="EF1">
+        <v>19.412142857142857</v>
+      </c>
+      <c r="EG1">
+        <v>12.533999999999999</v>
+      </c>
+      <c r="EH1">
+        <v>1.8895476190476188</v>
+      </c>
+      <c r="EI1">
+        <v>22.697380952380954</v>
+      </c>
+      <c r="EJ1">
+        <v>19.213214285714287</v>
       </c>
     </row>
   </sheetData>
